--- a/backend/fms_core/static/submission_templates/Axiom_sample_preparation_v4_9_0.xlsx
+++ b/backend/fms_core/static/submission_templates/Axiom_sample_preparation_v4_9_0.xlsx
@@ -24,7 +24,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author> </author>
+    <author>UFG</author>
   </authors>
   <commentList>
     <comment ref="G6" authorId="0">
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="472">
   <si>
     <t xml:space="preserve">Axiom Sample Preparation Template</t>
   </si>
@@ -139,25 +139,7 @@
     <t xml:space="preserve">Incubation Time In Amplification (YYYY-MM-DD HH:MM)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Incubation Time Out Amplification</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve"> (YYYY-MM-DD HH:MM)</t>
-    </r>
+    <t xml:space="preserve">Incubation Time Out Amplification (YYYY-MM-DD HH:MM)</t>
   </si>
   <si>
     <t xml:space="preserve">Liquid Handler Instrument Amplification</t>
@@ -337,19 +319,22 @@
     <t xml:space="preserve">C01</t>
   </si>
   <si>
+    <t xml:space="preserve">Repeat step - Move to next step and repeat current step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tube Strip 2x1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D01</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ignore workflow - Do not register as part of a workflow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tube Strip 2x1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D01</t>
   </si>
   <si>
     <t xml:space="preserve">Tube Strip 3x1</t>
@@ -1704,7 +1689,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1778,12 +1763,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="16"/>
@@ -2001,7 +1980,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2009,7 +1988,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2025,7 +2004,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2114,15 +2093,15 @@
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="37.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="47.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="52.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="31.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="48.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="48.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="50.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="36.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="29.53"/>
@@ -33183,7 +33162,7 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E7:E96" type="list">
-      <formula1>Index!$I$2:$I$4</formula1>
+      <formula1>Index!$I$2:$I$5</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -33436,7 +33415,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.43"/>
@@ -33445,7 +33424,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="29.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="9" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="52.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="10" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33556,7 +33536,7 @@
       </c>
       <c r="G4" s="22"/>
       <c r="H4" s="22"/>
-      <c r="I4" s="0" t="s">
+      <c r="I4" s="15" t="s">
         <v>75</v>
       </c>
     </row>
@@ -33579,248 +33559,251 @@
       <c r="F5" s="22" t="s">
         <v>79</v>
       </c>
+      <c r="I5" s="0" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>74</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D6" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>81</v>
-      </c>
       <c r="F6" s="22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D7" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>85</v>
-      </c>
       <c r="F7" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>79</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D8" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>88</v>
-      </c>
       <c r="F8" s="22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D9" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>92</v>
-      </c>
       <c r="F9" s="22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>67</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>77</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="15"/>
       <c r="B12" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="15"/>
       <c r="B13" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="15"/>
       <c r="B14" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>68</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="15"/>
       <c r="B15" s="15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>77</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="15"/>
       <c r="B16" s="15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="15"/>
       <c r="B17" s="15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C17" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>114</v>
-      </c>
       <c r="E17" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="15"/>
       <c r="B18" s="15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>73</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F18" s="22" t="s">
         <v>67</v>
@@ -33829,16 +33812,16 @@
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="15"/>
       <c r="B19" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F19" s="22" t="s">
         <v>77</v>
@@ -33847,109 +33830,109 @@
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="15"/>
       <c r="B20" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="15"/>
       <c r="B21" s="15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="15"/>
       <c r="B22" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="15"/>
       <c r="B23" s="15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="15"/>
       <c r="B24" s="15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="15"/>
       <c r="B25" s="15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -33965,132 +33948,132 @@
         <v>68</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="15"/>
       <c r="B27" s="15"/>
       <c r="C27" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>77</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="C28" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="C29" s="15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="15"/>
       <c r="B31" s="15"/>
       <c r="C31" s="15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="C32" s="15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="15"/>
       <c r="B34" s="15"/>
       <c r="C34" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F34" s="22" t="s">
         <v>73</v>
@@ -34100,48 +34083,48 @@
       <c r="A35" s="15"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="C36" s="15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -34151,199 +34134,199 @@
         <v>79</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="15"/>
       <c r="B39" s="15"/>
       <c r="C39" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="C40" s="15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
       <c r="C44" s="15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="15"/>
       <c r="B45" s="15"/>
       <c r="C45" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="15"/>
       <c r="B46" s="15"/>
       <c r="C46" s="15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="15"/>
       <c r="B47" s="15"/>
       <c r="C47" s="15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="15"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="C49" s="15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
       <c r="C50" s="15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E50" s="15" t="s">
         <v>74</v>
@@ -34356,192 +34339,192 @@
       <c r="A51" s="15"/>
       <c r="B51" s="15"/>
       <c r="C51" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="15"/>
       <c r="B52" s="15"/>
       <c r="C52" s="15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="15"/>
       <c r="B53" s="15"/>
       <c r="C53" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="15"/>
       <c r="B54" s="15"/>
       <c r="C54" s="15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F54" s="22" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="15"/>
       <c r="B55" s="15"/>
       <c r="C55" s="15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="15"/>
       <c r="B56" s="15"/>
       <c r="C56" s="15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="15"/>
       <c r="B57" s="15"/>
       <c r="C57" s="15" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F57" s="22" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="15"/>
       <c r="B58" s="15"/>
       <c r="C58" s="15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F58" s="22" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="15"/>
       <c r="B59" s="15"/>
       <c r="C59" s="15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F59" s="22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="15"/>
       <c r="B60" s="15"/>
       <c r="C60" s="15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="15"/>
       <c r="B61" s="15"/>
       <c r="C61" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="15"/>
       <c r="B62" s="15"/>
       <c r="C62" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F62" s="22" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -34551,13 +34534,13 @@
         <v>62</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F63" s="22" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -34567,13 +34550,13 @@
         <v>67</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F64" s="22" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -34583,13 +34566,13 @@
         <v>73</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -34599,141 +34582,141 @@
         <v>78</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F66" s="22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="15"/>
       <c r="B67" s="15"/>
       <c r="C67" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F67" s="22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="15"/>
       <c r="B68" s="15"/>
       <c r="C68" s="15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F68" s="22" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="15"/>
       <c r="B69" s="15"/>
       <c r="C69" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F69" s="22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="15"/>
       <c r="B70" s="15"/>
       <c r="C70" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F70" s="22" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="15"/>
       <c r="B71" s="15"/>
       <c r="C71" s="15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F71" s="22" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E72" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F72" s="22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="15"/>
       <c r="B73" s="15"/>
       <c r="C73" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F73" s="22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="15"/>
       <c r="B74" s="15"/>
       <c r="C74" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E74" s="15" t="s">
         <v>79</v>
       </c>
       <c r="F74" s="22" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -34743,13 +34726,13 @@
         <v>68</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F75" s="22" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -34759,173 +34742,173 @@
         <v>77</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F76" s="22" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="15"/>
       <c r="B77" s="15"/>
       <c r="C77" s="15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="15"/>
       <c r="B78" s="15"/>
       <c r="C78" s="15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F78" s="22" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="15"/>
       <c r="B79" s="15"/>
       <c r="C79" s="15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F79" s="22" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="15"/>
       <c r="B80" s="15"/>
       <c r="C80" s="15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F80" s="22" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="15"/>
       <c r="B81" s="15"/>
       <c r="C81" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F81" s="22" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="15"/>
       <c r="B82" s="15"/>
       <c r="C82" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F82" s="22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="15"/>
       <c r="B83" s="15"/>
       <c r="C83" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E83" s="15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F83" s="22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="15"/>
       <c r="B84" s="15"/>
       <c r="C84" s="15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F84" s="22" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="15"/>
       <c r="B85" s="15"/>
       <c r="C85" s="15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F85" s="22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="15"/>
       <c r="B86" s="15"/>
       <c r="C86" s="15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F86" s="22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -34935,187 +34918,187 @@
         <v>74</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F87" s="22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="15"/>
       <c r="B88" s="15"/>
       <c r="C88" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F88" s="22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="15"/>
       <c r="B89" s="15"/>
       <c r="C89" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F89" s="22" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="15"/>
       <c r="B90" s="15"/>
       <c r="C90" s="15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E90" s="15" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F90" s="22" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="15"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F91" s="22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="15"/>
       <c r="B92" s="15"/>
       <c r="C92" s="15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F92" s="22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="15"/>
       <c r="B93" s="15"/>
       <c r="C93" s="15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E93" s="15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="15"/>
       <c r="B94" s="15"/>
       <c r="C94" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F94" s="22" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="15"/>
       <c r="B95" s="15"/>
       <c r="C95" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F95" s="22" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="15"/>
       <c r="B96" s="15"/>
       <c r="C96" s="15" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E96" s="15" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F96" s="22" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="15"/>
       <c r="B97" s="15"/>
       <c r="C97" s="15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E97" s="15" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F97" s="22" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="15"/>
       <c r="B98" s="15"/>
       <c r="C98" s="15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D98" s="15"/>
       <c r="E98" s="15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F98" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35126,192 +35109,192 @@
       </c>
       <c r="D99" s="15"/>
       <c r="E99" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F99" s="22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="15"/>
       <c r="B100" s="15"/>
       <c r="C100" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D100" s="15"/>
       <c r="E100" s="15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F100" s="22" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="15"/>
       <c r="B101" s="15"/>
       <c r="C101" s="15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D101" s="15"/>
       <c r="E101" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F101" s="22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="15"/>
       <c r="B102" s="15"/>
       <c r="C102" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D102" s="15"/>
       <c r="E102" s="15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F102" s="22" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="15"/>
       <c r="B103" s="15"/>
       <c r="C103" s="15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D103" s="15"/>
       <c r="E103" s="15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F103" s="22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="15"/>
       <c r="B104" s="15"/>
       <c r="C104" s="15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D104" s="15"/>
       <c r="E104" s="15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F104" s="22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="15"/>
       <c r="B105" s="15"/>
       <c r="C105" s="15" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D105" s="15"/>
       <c r="E105" s="15" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F105" s="22" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="15"/>
       <c r="B106" s="15"/>
       <c r="C106" s="15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D106" s="15"/>
       <c r="E106" s="15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F106" s="22" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="15"/>
       <c r="B107" s="15"/>
       <c r="C107" s="15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D107" s="15"/>
       <c r="E107" s="15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F107" s="22" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="15"/>
       <c r="B108" s="15"/>
       <c r="C108" s="15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D108" s="15"/>
       <c r="E108" s="15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F108" s="22" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="15"/>
       <c r="B109" s="15"/>
       <c r="C109" s="15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D109" s="15"/>
       <c r="E109" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="15"/>
       <c r="B110" s="15"/>
       <c r="C110" s="15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D110" s="15"/>
       <c r="E110" s="15" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F110" s="22" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="15"/>
       <c r="B111" s="15"/>
       <c r="C111" s="15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D111" s="15"/>
       <c r="E111" s="15" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F111" s="22" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="15"/>
       <c r="B112" s="15"/>
       <c r="C112" s="15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D112" s="15"/>
       <c r="E112" s="15" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F112" s="22" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35320,10 +35303,10 @@
       <c r="C113" s="15"/>
       <c r="D113" s="15"/>
       <c r="E113" s="15" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F113" s="22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35332,10 +35315,10 @@
       <c r="C114" s="15"/>
       <c r="D114" s="15"/>
       <c r="E114" s="15" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F114" s="22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35344,10 +35327,10 @@
       <c r="C115" s="15"/>
       <c r="D115" s="15"/>
       <c r="E115" s="15" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F115" s="22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35356,10 +35339,10 @@
       <c r="C116" s="15"/>
       <c r="D116" s="15"/>
       <c r="E116" s="15" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F116" s="22" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35368,10 +35351,10 @@
       <c r="C117" s="15"/>
       <c r="D117" s="15"/>
       <c r="E117" s="15" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F117" s="22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35380,10 +35363,10 @@
       <c r="C118" s="15"/>
       <c r="D118" s="15"/>
       <c r="E118" s="15" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F118" s="22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35392,10 +35375,10 @@
       <c r="C119" s="15"/>
       <c r="D119" s="15"/>
       <c r="E119" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F119" s="22" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35404,10 +35387,10 @@
       <c r="C120" s="15"/>
       <c r="D120" s="15"/>
       <c r="E120" s="15" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F120" s="22" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35416,10 +35399,10 @@
       <c r="C121" s="15"/>
       <c r="D121" s="15"/>
       <c r="E121" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F121" s="22" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35428,10 +35411,10 @@
       <c r="C122" s="15"/>
       <c r="D122" s="15"/>
       <c r="E122" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F122" s="22" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35440,10 +35423,10 @@
       <c r="C123" s="15"/>
       <c r="D123" s="15"/>
       <c r="E123" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F123" s="22" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35452,10 +35435,10 @@
       <c r="C124" s="15"/>
       <c r="D124" s="15"/>
       <c r="E124" s="15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F124" s="22" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35464,10 +35447,10 @@
       <c r="C125" s="15"/>
       <c r="D125" s="15"/>
       <c r="E125" s="15" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35476,10 +35459,10 @@
       <c r="C126" s="15"/>
       <c r="D126" s="15"/>
       <c r="E126" s="15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F126" s="22" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35488,10 +35471,10 @@
       <c r="C127" s="15"/>
       <c r="D127" s="15"/>
       <c r="E127" s="15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F127" s="22" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35500,10 +35483,10 @@
       <c r="C128" s="15"/>
       <c r="D128" s="15"/>
       <c r="E128" s="15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F128" s="22" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35512,10 +35495,10 @@
       <c r="C129" s="15"/>
       <c r="D129" s="15"/>
       <c r="E129" s="15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F129" s="22" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35524,10 +35507,10 @@
       <c r="C130" s="15"/>
       <c r="D130" s="15"/>
       <c r="E130" s="15" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F130" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35536,10 +35519,10 @@
       <c r="C131" s="15"/>
       <c r="D131" s="15"/>
       <c r="E131" s="15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F131" s="22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35548,10 +35531,10 @@
       <c r="C132" s="15"/>
       <c r="D132" s="15"/>
       <c r="E132" s="15" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F132" s="22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35560,10 +35543,10 @@
       <c r="C133" s="15"/>
       <c r="D133" s="15"/>
       <c r="E133" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F133" s="22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35572,10 +35555,10 @@
       <c r="C134" s="15"/>
       <c r="D134" s="15"/>
       <c r="E134" s="15" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F134" s="22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35584,10 +35567,10 @@
       <c r="C135" s="15"/>
       <c r="D135" s="15"/>
       <c r="E135" s="15" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F135" s="22" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35596,10 +35579,10 @@
       <c r="C136" s="15"/>
       <c r="D136" s="15"/>
       <c r="E136" s="15" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F136" s="22" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35608,10 +35591,10 @@
       <c r="C137" s="15"/>
       <c r="D137" s="15"/>
       <c r="E137" s="15" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F137" s="22" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35620,10 +35603,10 @@
       <c r="C138" s="15"/>
       <c r="D138" s="15"/>
       <c r="E138" s="15" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F138" s="22" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35632,10 +35615,10 @@
       <c r="C139" s="15"/>
       <c r="D139" s="15"/>
       <c r="E139" s="15" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F139" s="22" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35644,10 +35627,10 @@
       <c r="C140" s="15"/>
       <c r="D140" s="15"/>
       <c r="E140" s="15" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F140" s="22" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35656,10 +35639,10 @@
       <c r="C141" s="15"/>
       <c r="D141" s="15"/>
       <c r="E141" s="15" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35668,10 +35651,10 @@
       <c r="C142" s="15"/>
       <c r="D142" s="15"/>
       <c r="E142" s="15" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F142" s="22" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35680,10 +35663,10 @@
       <c r="C143" s="15"/>
       <c r="D143" s="15"/>
       <c r="E143" s="15" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F143" s="22" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35692,10 +35675,10 @@
       <c r="C144" s="15"/>
       <c r="D144" s="15"/>
       <c r="E144" s="15" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F144" s="22" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35704,10 +35687,10 @@
       <c r="C145" s="15"/>
       <c r="D145" s="15"/>
       <c r="E145" s="15" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F145" s="22" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35716,10 +35699,10 @@
       <c r="C146" s="15"/>
       <c r="D146" s="15"/>
       <c r="E146" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F146" s="22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35728,10 +35711,10 @@
       <c r="C147" s="15"/>
       <c r="D147" s="15"/>
       <c r="E147" s="15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F147" s="22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35740,10 +35723,10 @@
       <c r="C148" s="15"/>
       <c r="D148" s="15"/>
       <c r="E148" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F148" s="22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35752,10 +35735,10 @@
       <c r="C149" s="15"/>
       <c r="D149" s="15"/>
       <c r="E149" s="15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F149" s="22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35764,10 +35747,10 @@
       <c r="C150" s="15"/>
       <c r="D150" s="15"/>
       <c r="E150" s="15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F150" s="22" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35776,10 +35759,10 @@
       <c r="C151" s="15"/>
       <c r="D151" s="15"/>
       <c r="E151" s="15" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F151" s="22" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35788,10 +35771,10 @@
       <c r="C152" s="15"/>
       <c r="D152" s="15"/>
       <c r="E152" s="15" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F152" s="22" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35800,10 +35783,10 @@
       <c r="C153" s="15"/>
       <c r="D153" s="15"/>
       <c r="E153" s="15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F153" s="22" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35812,10 +35795,10 @@
       <c r="C154" s="15"/>
       <c r="D154" s="15"/>
       <c r="E154" s="15" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F154" s="22" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35824,10 +35807,10 @@
       <c r="C155" s="15"/>
       <c r="D155" s="15"/>
       <c r="E155" s="15" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F155" s="22" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35836,10 +35819,10 @@
       <c r="C156" s="15"/>
       <c r="D156" s="15"/>
       <c r="E156" s="15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F156" s="22" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35848,10 +35831,10 @@
       <c r="C157" s="15"/>
       <c r="D157" s="15"/>
       <c r="E157" s="15" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F157" s="22" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35860,10 +35843,10 @@
       <c r="C158" s="15"/>
       <c r="D158" s="15"/>
       <c r="E158" s="15" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F158" s="22" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35872,10 +35855,10 @@
       <c r="C159" s="15"/>
       <c r="D159" s="15"/>
       <c r="E159" s="15" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F159" s="22" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35884,10 +35867,10 @@
       <c r="C160" s="15"/>
       <c r="D160" s="15"/>
       <c r="E160" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F160" s="22" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35896,10 +35879,10 @@
       <c r="C161" s="15"/>
       <c r="D161" s="15"/>
       <c r="E161" s="15" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F161" s="22" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35908,10 +35891,10 @@
       <c r="C162" s="15"/>
       <c r="D162" s="15"/>
       <c r="E162" s="15" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F162" s="22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35920,10 +35903,10 @@
       <c r="C163" s="15"/>
       <c r="D163" s="15"/>
       <c r="E163" s="15" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F163" s="22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35932,10 +35915,10 @@
       <c r="C164" s="15"/>
       <c r="D164" s="15"/>
       <c r="E164" s="15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F164" s="22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35944,10 +35927,10 @@
       <c r="C165" s="15"/>
       <c r="D165" s="15"/>
       <c r="E165" s="15" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F165" s="22" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35956,10 +35939,10 @@
       <c r="C166" s="15"/>
       <c r="D166" s="15"/>
       <c r="E166" s="15" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F166" s="22" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35968,10 +35951,10 @@
       <c r="C167" s="15"/>
       <c r="D167" s="15"/>
       <c r="E167" s="15" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F167" s="22" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35980,10 +35963,10 @@
       <c r="C168" s="15"/>
       <c r="D168" s="15"/>
       <c r="E168" s="15" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F168" s="22" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -35992,10 +35975,10 @@
       <c r="C169" s="15"/>
       <c r="D169" s="15"/>
       <c r="E169" s="15" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F169" s="22" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36004,10 +35987,10 @@
       <c r="C170" s="15"/>
       <c r="D170" s="15"/>
       <c r="E170" s="15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F170" s="22" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36016,10 +35999,10 @@
       <c r="C171" s="15"/>
       <c r="D171" s="15"/>
       <c r="E171" s="15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F171" s="22" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36028,10 +36011,10 @@
       <c r="C172" s="15"/>
       <c r="D172" s="15"/>
       <c r="E172" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F172" s="22" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36040,10 +36023,10 @@
       <c r="C173" s="15"/>
       <c r="D173" s="15"/>
       <c r="E173" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F173" s="22" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36052,10 +36035,10 @@
       <c r="C174" s="15"/>
       <c r="D174" s="15"/>
       <c r="E174" s="15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F174" s="22" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36064,10 +36047,10 @@
       <c r="C175" s="15"/>
       <c r="D175" s="15"/>
       <c r="E175" s="15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F175" s="22" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36076,10 +36059,10 @@
       <c r="C176" s="15"/>
       <c r="D176" s="15"/>
       <c r="E176" s="15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F176" s="22" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36088,10 +36071,10 @@
       <c r="C177" s="15"/>
       <c r="D177" s="15"/>
       <c r="E177" s="15" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F177" s="22" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36100,10 +36083,10 @@
       <c r="C178" s="15"/>
       <c r="D178" s="15"/>
       <c r="E178" s="15" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F178" s="22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36112,10 +36095,10 @@
       <c r="C179" s="15"/>
       <c r="D179" s="15"/>
       <c r="E179" s="15" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F179" s="22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36124,10 +36107,10 @@
       <c r="C180" s="15"/>
       <c r="D180" s="15"/>
       <c r="E180" s="15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F180" s="22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36136,10 +36119,10 @@
       <c r="C181" s="15"/>
       <c r="D181" s="15"/>
       <c r="E181" s="15" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F181" s="22" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36148,10 +36131,10 @@
       <c r="C182" s="15"/>
       <c r="D182" s="15"/>
       <c r="E182" s="15" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F182" s="22" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36160,10 +36143,10 @@
       <c r="C183" s="15"/>
       <c r="D183" s="15"/>
       <c r="E183" s="15" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F183" s="22" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36172,10 +36155,10 @@
       <c r="C184" s="15"/>
       <c r="D184" s="15"/>
       <c r="E184" s="15" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F184" s="22" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36184,10 +36167,10 @@
       <c r="C185" s="15"/>
       <c r="D185" s="15"/>
       <c r="E185" s="15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F185" s="22" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36196,10 +36179,10 @@
       <c r="C186" s="15"/>
       <c r="D186" s="15"/>
       <c r="E186" s="15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F186" s="22" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36208,10 +36191,10 @@
       <c r="C187" s="15"/>
       <c r="D187" s="15"/>
       <c r="E187" s="15" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F187" s="22" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36220,10 +36203,10 @@
       <c r="C188" s="15"/>
       <c r="D188" s="15"/>
       <c r="E188" s="15" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F188" s="22" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36232,10 +36215,10 @@
       <c r="C189" s="15"/>
       <c r="D189" s="15"/>
       <c r="E189" s="15" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F189" s="22" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36244,10 +36227,10 @@
       <c r="C190" s="15"/>
       <c r="D190" s="15"/>
       <c r="E190" s="15" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F190" s="22" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36256,10 +36239,10 @@
       <c r="C191" s="15"/>
       <c r="D191" s="15"/>
       <c r="E191" s="15" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F191" s="22" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36268,10 +36251,10 @@
       <c r="C192" s="15"/>
       <c r="D192" s="15"/>
       <c r="E192" s="15" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F192" s="22" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36280,10 +36263,10 @@
       <c r="C193" s="15"/>
       <c r="D193" s="15"/>
       <c r="E193" s="15" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F193" s="22" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36292,10 +36275,10 @@
       <c r="C194" s="15"/>
       <c r="D194" s="15"/>
       <c r="E194" s="15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F194" s="22" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36304,10 +36287,10 @@
       <c r="C195" s="15"/>
       <c r="D195" s="15"/>
       <c r="E195" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F195" s="22" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36316,10 +36299,10 @@
       <c r="C196" s="15"/>
       <c r="D196" s="15"/>
       <c r="E196" s="15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F196" s="22" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36328,10 +36311,10 @@
       <c r="C197" s="15"/>
       <c r="D197" s="15"/>
       <c r="E197" s="15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F197" s="22" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36340,10 +36323,10 @@
       <c r="C198" s="15"/>
       <c r="D198" s="15"/>
       <c r="E198" s="15" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F198" s="22" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36352,10 +36335,10 @@
       <c r="C199" s="15"/>
       <c r="D199" s="15"/>
       <c r="E199" s="15" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F199" s="22" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36364,10 +36347,10 @@
       <c r="C200" s="15"/>
       <c r="D200" s="15"/>
       <c r="E200" s="15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F200" s="22" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36376,10 +36359,10 @@
       <c r="C201" s="15"/>
       <c r="D201" s="15"/>
       <c r="E201" s="15" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F201" s="22" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36388,10 +36371,10 @@
       <c r="C202" s="15"/>
       <c r="D202" s="15"/>
       <c r="E202" s="15" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F202" s="22" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36400,10 +36383,10 @@
       <c r="C203" s="15"/>
       <c r="D203" s="15"/>
       <c r="E203" s="15" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F203" s="22" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36412,10 +36395,10 @@
       <c r="C204" s="15"/>
       <c r="D204" s="15"/>
       <c r="E204" s="15" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F204" s="22" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36424,10 +36407,10 @@
       <c r="C205" s="15"/>
       <c r="D205" s="15"/>
       <c r="E205" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F205" s="22" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36436,10 +36419,10 @@
       <c r="C206" s="15"/>
       <c r="D206" s="15"/>
       <c r="E206" s="15" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F206" s="22" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36448,10 +36431,10 @@
       <c r="C207" s="15"/>
       <c r="D207" s="15"/>
       <c r="E207" s="15" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F207" s="22" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36460,10 +36443,10 @@
       <c r="C208" s="15"/>
       <c r="D208" s="15"/>
       <c r="E208" s="15" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F208" s="22" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36472,10 +36455,10 @@
       <c r="C209" s="15"/>
       <c r="D209" s="15"/>
       <c r="E209" s="15" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F209" s="22" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36484,10 +36467,10 @@
       <c r="C210" s="15"/>
       <c r="D210" s="15"/>
       <c r="E210" s="15" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F210" s="22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36496,10 +36479,10 @@
       <c r="C211" s="15"/>
       <c r="D211" s="15"/>
       <c r="E211" s="15" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F211" s="22" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36508,10 +36491,10 @@
       <c r="C212" s="15"/>
       <c r="D212" s="15"/>
       <c r="E212" s="15" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F212" s="22" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36520,10 +36503,10 @@
       <c r="C213" s="15"/>
       <c r="D213" s="15"/>
       <c r="E213" s="15" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F213" s="22" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36532,10 +36515,10 @@
       <c r="C214" s="15"/>
       <c r="D214" s="15"/>
       <c r="E214" s="15" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F214" s="22" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36544,10 +36527,10 @@
       <c r="C215" s="15"/>
       <c r="D215" s="15"/>
       <c r="E215" s="15" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F215" s="22" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36556,10 +36539,10 @@
       <c r="C216" s="15"/>
       <c r="D216" s="15"/>
       <c r="E216" s="15" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F216" s="22" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36568,10 +36551,10 @@
       <c r="C217" s="15"/>
       <c r="D217" s="15"/>
       <c r="E217" s="15" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F217" s="22" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36580,10 +36563,10 @@
       <c r="C218" s="15"/>
       <c r="D218" s="15"/>
       <c r="E218" s="15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F218" s="22" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36592,10 +36575,10 @@
       <c r="C219" s="15"/>
       <c r="D219" s="15"/>
       <c r="E219" s="15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F219" s="22" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36604,10 +36587,10 @@
       <c r="C220" s="15"/>
       <c r="D220" s="15"/>
       <c r="E220" s="15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F220" s="22" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36616,10 +36599,10 @@
       <c r="C221" s="15"/>
       <c r="D221" s="15"/>
       <c r="E221" s="15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F221" s="22" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36628,10 +36611,10 @@
       <c r="C222" s="15"/>
       <c r="D222" s="15"/>
       <c r="E222" s="15" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F222" s="22" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36640,10 +36623,10 @@
       <c r="C223" s="15"/>
       <c r="D223" s="15"/>
       <c r="E223" s="15" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F223" s="22" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36652,10 +36635,10 @@
       <c r="C224" s="15"/>
       <c r="D224" s="15"/>
       <c r="E224" s="15" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F224" s="22" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36664,10 +36647,10 @@
       <c r="C225" s="15"/>
       <c r="D225" s="15"/>
       <c r="E225" s="15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F225" s="22" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36676,10 +36659,10 @@
       <c r="C226" s="15"/>
       <c r="D226" s="15"/>
       <c r="E226" s="15" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F226" s="22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36688,10 +36671,10 @@
       <c r="C227" s="15"/>
       <c r="D227" s="15"/>
       <c r="E227" s="15" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F227" s="22" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36700,10 +36683,10 @@
       <c r="C228" s="15"/>
       <c r="D228" s="15"/>
       <c r="E228" s="15" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F228" s="22" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36712,10 +36695,10 @@
       <c r="C229" s="15"/>
       <c r="D229" s="15"/>
       <c r="E229" s="15" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F229" s="22" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36724,10 +36707,10 @@
       <c r="C230" s="15"/>
       <c r="D230" s="15"/>
       <c r="E230" s="15" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F230" s="22" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36736,10 +36719,10 @@
       <c r="C231" s="15"/>
       <c r="D231" s="15"/>
       <c r="E231" s="15" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F231" s="22" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36748,10 +36731,10 @@
       <c r="C232" s="15"/>
       <c r="D232" s="15"/>
       <c r="E232" s="15" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F232" s="22" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36760,10 +36743,10 @@
       <c r="C233" s="15"/>
       <c r="D233" s="15"/>
       <c r="E233" s="15" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F233" s="22" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36772,10 +36755,10 @@
       <c r="C234" s="15"/>
       <c r="D234" s="15"/>
       <c r="E234" s="15" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F234" s="22" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36784,10 +36767,10 @@
       <c r="C235" s="15"/>
       <c r="D235" s="15"/>
       <c r="E235" s="15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F235" s="22" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36796,10 +36779,10 @@
       <c r="C236" s="15"/>
       <c r="D236" s="15"/>
       <c r="E236" s="15" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F236" s="22" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36808,10 +36791,10 @@
       <c r="C237" s="15"/>
       <c r="D237" s="15"/>
       <c r="E237" s="15" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F237" s="22" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36820,10 +36803,10 @@
       <c r="C238" s="15"/>
       <c r="D238" s="15"/>
       <c r="E238" s="15" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F238" s="22" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36832,10 +36815,10 @@
       <c r="C239" s="15"/>
       <c r="D239" s="15"/>
       <c r="E239" s="15" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F239" s="22" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36844,10 +36827,10 @@
       <c r="C240" s="15"/>
       <c r="D240" s="15"/>
       <c r="E240" s="15" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F240" s="22" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36856,10 +36839,10 @@
       <c r="C241" s="15"/>
       <c r="D241" s="15"/>
       <c r="E241" s="15" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F241" s="22" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36868,10 +36851,10 @@
       <c r="C242" s="15"/>
       <c r="D242" s="15"/>
       <c r="E242" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F242" s="22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36880,10 +36863,10 @@
       <c r="C243" s="15"/>
       <c r="D243" s="15"/>
       <c r="E243" s="15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F243" s="22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36892,10 +36875,10 @@
       <c r="C244" s="15"/>
       <c r="D244" s="15"/>
       <c r="E244" s="15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F244" s="22" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36904,10 +36887,10 @@
       <c r="C245" s="15"/>
       <c r="D245" s="15"/>
       <c r="E245" s="15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F245" s="22" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36916,10 +36899,10 @@
       <c r="C246" s="15"/>
       <c r="D246" s="15"/>
       <c r="E246" s="15" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F246" s="22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36928,10 +36911,10 @@
       <c r="C247" s="15"/>
       <c r="D247" s="15"/>
       <c r="E247" s="15" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F247" s="22" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36940,10 +36923,10 @@
       <c r="C248" s="15"/>
       <c r="D248" s="15"/>
       <c r="E248" s="15" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F248" s="22" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36952,10 +36935,10 @@
       <c r="C249" s="15"/>
       <c r="D249" s="15"/>
       <c r="E249" s="15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F249" s="22" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36964,10 +36947,10 @@
       <c r="C250" s="15"/>
       <c r="D250" s="15"/>
       <c r="E250" s="15" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F250" s="22" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36976,10 +36959,10 @@
       <c r="C251" s="15"/>
       <c r="D251" s="15"/>
       <c r="E251" s="15" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F251" s="22" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -36988,10 +36971,10 @@
       <c r="C252" s="15"/>
       <c r="D252" s="15"/>
       <c r="E252" s="15" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F252" s="22" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37000,10 +36983,10 @@
       <c r="C253" s="15"/>
       <c r="D253" s="15"/>
       <c r="E253" s="15" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F253" s="22" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37012,10 +36995,10 @@
       <c r="C254" s="15"/>
       <c r="D254" s="15"/>
       <c r="E254" s="15" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F254" s="22" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37024,10 +37007,10 @@
       <c r="C255" s="15"/>
       <c r="D255" s="15"/>
       <c r="E255" s="15" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F255" s="22" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37036,10 +37019,10 @@
       <c r="C256" s="15"/>
       <c r="D256" s="15"/>
       <c r="E256" s="15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F256" s="22" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37048,10 +37031,10 @@
       <c r="C257" s="15"/>
       <c r="D257" s="15"/>
       <c r="E257" s="15" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F257" s="22" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37060,10 +37043,10 @@
       <c r="C258" s="15"/>
       <c r="D258" s="15"/>
       <c r="E258" s="15" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F258" s="22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37072,10 +37055,10 @@
       <c r="C259" s="15"/>
       <c r="D259" s="15"/>
       <c r="E259" s="15" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F259" s="22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37084,10 +37067,10 @@
       <c r="C260" s="15"/>
       <c r="D260" s="15"/>
       <c r="E260" s="15" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F260" s="22" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37096,10 +37079,10 @@
       <c r="C261" s="15"/>
       <c r="D261" s="15"/>
       <c r="E261" s="15" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F261" s="22" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37108,10 +37091,10 @@
       <c r="C262" s="15"/>
       <c r="D262" s="15"/>
       <c r="E262" s="15" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F262" s="22" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37120,10 +37103,10 @@
       <c r="C263" s="15"/>
       <c r="D263" s="15"/>
       <c r="E263" s="15" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F263" s="22" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37132,10 +37115,10 @@
       <c r="C264" s="15"/>
       <c r="D264" s="15"/>
       <c r="E264" s="15" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F264" s="22" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37144,10 +37127,10 @@
       <c r="C265" s="15"/>
       <c r="D265" s="15"/>
       <c r="E265" s="15" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F265" s="22" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37156,10 +37139,10 @@
       <c r="C266" s="15"/>
       <c r="D266" s="15"/>
       <c r="E266" s="15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F266" s="22" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37168,10 +37151,10 @@
       <c r="C267" s="15"/>
       <c r="D267" s="15"/>
       <c r="E267" s="15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F267" s="22" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37180,10 +37163,10 @@
       <c r="C268" s="15"/>
       <c r="D268" s="15"/>
       <c r="E268" s="15" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F268" s="22" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37192,10 +37175,10 @@
       <c r="C269" s="15"/>
       <c r="D269" s="15"/>
       <c r="E269" s="15" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F269" s="22" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37204,10 +37187,10 @@
       <c r="C270" s="15"/>
       <c r="D270" s="15"/>
       <c r="E270" s="15" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F270" s="22" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37216,10 +37199,10 @@
       <c r="C271" s="15"/>
       <c r="D271" s="15"/>
       <c r="E271" s="15" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F271" s="22" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37228,10 +37211,10 @@
       <c r="C272" s="15"/>
       <c r="D272" s="15"/>
       <c r="E272" s="15" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F272" s="22" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37240,10 +37223,10 @@
       <c r="C273" s="15"/>
       <c r="D273" s="15"/>
       <c r="E273" s="15" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F273" s="22" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37252,10 +37235,10 @@
       <c r="C274" s="15"/>
       <c r="D274" s="15"/>
       <c r="E274" s="15" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F274" s="22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37264,10 +37247,10 @@
       <c r="C275" s="15"/>
       <c r="D275" s="15"/>
       <c r="E275" s="15" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F275" s="22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37276,10 +37259,10 @@
       <c r="C276" s="15"/>
       <c r="D276" s="15"/>
       <c r="E276" s="15" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F276" s="22" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37288,10 +37271,10 @@
       <c r="C277" s="15"/>
       <c r="D277" s="15"/>
       <c r="E277" s="15" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F277" s="22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37300,10 +37283,10 @@
       <c r="C278" s="15"/>
       <c r="D278" s="15"/>
       <c r="E278" s="15" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F278" s="22" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37312,10 +37295,10 @@
       <c r="C279" s="15"/>
       <c r="D279" s="15"/>
       <c r="E279" s="15" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F279" s="22" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37324,10 +37307,10 @@
       <c r="C280" s="15"/>
       <c r="D280" s="15"/>
       <c r="E280" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F280" s="22" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37336,10 +37319,10 @@
       <c r="C281" s="15"/>
       <c r="D281" s="15"/>
       <c r="E281" s="15" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F281" s="22" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37348,10 +37331,10 @@
       <c r="C282" s="15"/>
       <c r="D282" s="15"/>
       <c r="E282" s="15" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F282" s="22" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37360,10 +37343,10 @@
       <c r="C283" s="15"/>
       <c r="D283" s="15"/>
       <c r="E283" s="15" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F283" s="22" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37372,10 +37355,10 @@
       <c r="C284" s="15"/>
       <c r="D284" s="15"/>
       <c r="E284" s="15" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F284" s="22" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37384,10 +37367,10 @@
       <c r="C285" s="15"/>
       <c r="D285" s="15"/>
       <c r="E285" s="15" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F285" s="22" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37396,10 +37379,10 @@
       <c r="C286" s="15"/>
       <c r="D286" s="15"/>
       <c r="E286" s="15" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F286" s="22" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37408,10 +37391,10 @@
       <c r="C287" s="15"/>
       <c r="D287" s="15"/>
       <c r="E287" s="15" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F287" s="22" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37420,10 +37403,10 @@
       <c r="C288" s="15"/>
       <c r="D288" s="15"/>
       <c r="E288" s="15" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F288" s="22" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37432,10 +37415,10 @@
       <c r="C289" s="15"/>
       <c r="D289" s="15"/>
       <c r="E289" s="15" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F289" s="22" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37444,10 +37427,10 @@
       <c r="C290" s="15"/>
       <c r="D290" s="15"/>
       <c r="E290" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F290" s="22" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37456,10 +37439,10 @@
       <c r="C291" s="15"/>
       <c r="D291" s="15"/>
       <c r="E291" s="15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F291" s="22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37468,10 +37451,10 @@
       <c r="C292" s="15"/>
       <c r="D292" s="15"/>
       <c r="E292" s="15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F292" s="22" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37480,10 +37463,10 @@
       <c r="C293" s="15"/>
       <c r="D293" s="15"/>
       <c r="E293" s="15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F293" s="22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37492,10 +37475,10 @@
       <c r="C294" s="15"/>
       <c r="D294" s="15"/>
       <c r="E294" s="15" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F294" s="22" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37504,10 +37487,10 @@
       <c r="C295" s="15"/>
       <c r="D295" s="15"/>
       <c r="E295" s="15" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F295" s="22" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37516,10 +37499,10 @@
       <c r="C296" s="15"/>
       <c r="D296" s="15"/>
       <c r="E296" s="15" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F296" s="22" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37528,10 +37511,10 @@
       <c r="C297" s="15"/>
       <c r="D297" s="15"/>
       <c r="E297" s="15" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F297" s="22" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37540,10 +37523,10 @@
       <c r="C298" s="15"/>
       <c r="D298" s="15"/>
       <c r="E298" s="15" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F298" s="22" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37552,10 +37535,10 @@
       <c r="C299" s="15"/>
       <c r="D299" s="15"/>
       <c r="E299" s="15" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F299" s="22" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37564,10 +37547,10 @@
       <c r="C300" s="15"/>
       <c r="D300" s="15"/>
       <c r="E300" s="15" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F300" s="22" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37576,10 +37559,10 @@
       <c r="C301" s="15"/>
       <c r="D301" s="15"/>
       <c r="E301" s="15" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F301" s="22" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37588,10 +37571,10 @@
       <c r="C302" s="15"/>
       <c r="D302" s="15"/>
       <c r="E302" s="15" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F302" s="22" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37600,10 +37583,10 @@
       <c r="C303" s="15"/>
       <c r="D303" s="15"/>
       <c r="E303" s="15" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F303" s="22" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37612,10 +37595,10 @@
       <c r="C304" s="15"/>
       <c r="D304" s="15"/>
       <c r="E304" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F304" s="22" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37624,10 +37607,10 @@
       <c r="C305" s="15"/>
       <c r="D305" s="15"/>
       <c r="E305" s="15" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F305" s="22" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37636,10 +37619,10 @@
       <c r="C306" s="15"/>
       <c r="D306" s="15"/>
       <c r="E306" s="15" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F306" s="22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37648,10 +37631,10 @@
       <c r="C307" s="15"/>
       <c r="D307" s="15"/>
       <c r="E307" s="15" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F307" s="22" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37660,10 +37643,10 @@
       <c r="C308" s="15"/>
       <c r="D308" s="15"/>
       <c r="E308" s="15" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F308" s="22" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37672,10 +37655,10 @@
       <c r="C309" s="15"/>
       <c r="D309" s="15"/>
       <c r="E309" s="15" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F309" s="22" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37684,10 +37667,10 @@
       <c r="C310" s="15"/>
       <c r="D310" s="15"/>
       <c r="E310" s="15" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F310" s="22" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37696,10 +37679,10 @@
       <c r="C311" s="15"/>
       <c r="D311" s="15"/>
       <c r="E311" s="15" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F311" s="22" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37708,10 +37691,10 @@
       <c r="C312" s="15"/>
       <c r="D312" s="15"/>
       <c r="E312" s="15" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F312" s="22" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37720,10 +37703,10 @@
       <c r="C313" s="15"/>
       <c r="D313" s="15"/>
       <c r="E313" s="15" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F313" s="22" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37732,10 +37715,10 @@
       <c r="C314" s="15"/>
       <c r="D314" s="15"/>
       <c r="E314" s="15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F314" s="22" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37744,10 +37727,10 @@
       <c r="C315" s="15"/>
       <c r="D315" s="15"/>
       <c r="E315" s="15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F315" s="22" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37756,10 +37739,10 @@
       <c r="C316" s="15"/>
       <c r="D316" s="15"/>
       <c r="E316" s="15" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F316" s="22" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37768,10 +37751,10 @@
       <c r="C317" s="15"/>
       <c r="D317" s="15"/>
       <c r="E317" s="15" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F317" s="22" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37780,10 +37763,10 @@
       <c r="C318" s="15"/>
       <c r="D318" s="15"/>
       <c r="E318" s="15" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F318" s="22" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37792,10 +37775,10 @@
       <c r="C319" s="15"/>
       <c r="D319" s="15"/>
       <c r="E319" s="15" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F319" s="22" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37804,10 +37787,10 @@
       <c r="C320" s="15"/>
       <c r="D320" s="15"/>
       <c r="E320" s="15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F320" s="22" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37816,10 +37799,10 @@
       <c r="C321" s="15"/>
       <c r="D321" s="15"/>
       <c r="E321" s="15" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F321" s="22" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37828,10 +37811,10 @@
       <c r="C322" s="15"/>
       <c r="D322" s="15"/>
       <c r="E322" s="15" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F322" s="22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37840,10 +37823,10 @@
       <c r="C323" s="15"/>
       <c r="D323" s="15"/>
       <c r="E323" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F323" s="22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37852,10 +37835,10 @@
       <c r="C324" s="15"/>
       <c r="D324" s="15"/>
       <c r="E324" s="15" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F324" s="22" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37864,10 +37847,10 @@
       <c r="C325" s="15"/>
       <c r="D325" s="15"/>
       <c r="E325" s="15" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F325" s="22" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37876,10 +37859,10 @@
       <c r="C326" s="15"/>
       <c r="D326" s="15"/>
       <c r="E326" s="15" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F326" s="22" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37888,10 +37871,10 @@
       <c r="C327" s="15"/>
       <c r="D327" s="15"/>
       <c r="E327" s="15" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F327" s="22" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37900,10 +37883,10 @@
       <c r="C328" s="15"/>
       <c r="D328" s="15"/>
       <c r="E328" s="15" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F328" s="22" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37912,10 +37895,10 @@
       <c r="C329" s="15"/>
       <c r="D329" s="15"/>
       <c r="E329" s="15" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F329" s="22" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37924,10 +37907,10 @@
       <c r="C330" s="15"/>
       <c r="D330" s="15"/>
       <c r="E330" s="15" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F330" s="22" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37936,10 +37919,10 @@
       <c r="C331" s="15"/>
       <c r="D331" s="15"/>
       <c r="E331" s="15" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F331" s="22" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37948,10 +37931,10 @@
       <c r="C332" s="15"/>
       <c r="D332" s="15"/>
       <c r="E332" s="15" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F332" s="22" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37960,10 +37943,10 @@
       <c r="C333" s="15"/>
       <c r="D333" s="15"/>
       <c r="E333" s="15" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F333" s="22" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37972,10 +37955,10 @@
       <c r="C334" s="15"/>
       <c r="D334" s="15"/>
       <c r="E334" s="15" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F334" s="22" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37984,10 +37967,10 @@
       <c r="C335" s="15"/>
       <c r="D335" s="15"/>
       <c r="E335" s="15" t="s">
+        <v>461</v>
+      </c>
+      <c r="F335" s="22" t="s">
         <v>460</v>
-      </c>
-      <c r="F335" s="22" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -37996,10 +37979,10 @@
       <c r="C336" s="15"/>
       <c r="D336" s="15"/>
       <c r="E336" s="15" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F336" s="22" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38008,10 +37991,10 @@
       <c r="C337" s="15"/>
       <c r="D337" s="15"/>
       <c r="E337" s="15" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F337" s="22" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38020,10 +38003,10 @@
       <c r="C338" s="15"/>
       <c r="D338" s="15"/>
       <c r="E338" s="15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F338" s="22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38032,10 +38015,10 @@
       <c r="C339" s="15"/>
       <c r="D339" s="15"/>
       <c r="E339" s="15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F339" s="22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38044,10 +38027,10 @@
       <c r="C340" s="15"/>
       <c r="D340" s="15"/>
       <c r="E340" s="15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F340" s="22" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38056,10 +38039,10 @@
       <c r="C341" s="15"/>
       <c r="D341" s="15"/>
       <c r="E341" s="15" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F341" s="22" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38068,10 +38051,10 @@
       <c r="C342" s="15"/>
       <c r="D342" s="15"/>
       <c r="E342" s="15" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F342" s="22" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38080,10 +38063,10 @@
       <c r="C343" s="15"/>
       <c r="D343" s="15"/>
       <c r="E343" s="15" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F343" s="22" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38092,10 +38075,10 @@
       <c r="C344" s="15"/>
       <c r="D344" s="15"/>
       <c r="E344" s="15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F344" s="22" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38104,10 +38087,10 @@
       <c r="C345" s="15"/>
       <c r="D345" s="15"/>
       <c r="E345" s="15" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F345" s="22" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38116,10 +38099,10 @@
       <c r="C346" s="15"/>
       <c r="D346" s="15"/>
       <c r="E346" s="15" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F346" s="22" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38128,10 +38111,10 @@
       <c r="C347" s="15"/>
       <c r="D347" s="15"/>
       <c r="E347" s="15" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F347" s="22" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38140,10 +38123,10 @@
       <c r="C348" s="15"/>
       <c r="D348" s="15"/>
       <c r="E348" s="15" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F348" s="22" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38152,10 +38135,10 @@
       <c r="C349" s="15"/>
       <c r="D349" s="15"/>
       <c r="E349" s="15" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F349" s="22" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38164,10 +38147,10 @@
       <c r="C350" s="15"/>
       <c r="D350" s="15"/>
       <c r="E350" s="15" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F350" s="22" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38176,10 +38159,10 @@
       <c r="C351" s="15"/>
       <c r="D351" s="15"/>
       <c r="E351" s="15" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F351" s="22" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38188,10 +38171,10 @@
       <c r="C352" s="15"/>
       <c r="D352" s="15"/>
       <c r="E352" s="15" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F352" s="22" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38200,10 +38183,10 @@
       <c r="C353" s="15"/>
       <c r="D353" s="15"/>
       <c r="E353" s="15" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F353" s="22" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38212,10 +38195,10 @@
       <c r="C354" s="15"/>
       <c r="D354" s="15"/>
       <c r="E354" s="15" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F354" s="22" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38224,10 +38207,10 @@
       <c r="C355" s="15"/>
       <c r="D355" s="15"/>
       <c r="E355" s="15" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F355" s="22" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38236,10 +38219,10 @@
       <c r="C356" s="15"/>
       <c r="D356" s="15"/>
       <c r="E356" s="15" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F356" s="22" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38248,10 +38231,10 @@
       <c r="C357" s="15"/>
       <c r="D357" s="15"/>
       <c r="E357" s="15" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F357" s="22" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38260,10 +38243,10 @@
       <c r="C358" s="15"/>
       <c r="D358" s="15"/>
       <c r="E358" s="15" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F358" s="22" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38272,10 +38255,10 @@
       <c r="C359" s="15"/>
       <c r="D359" s="15"/>
       <c r="E359" s="15" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F359" s="22" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38284,10 +38267,10 @@
       <c r="C360" s="15"/>
       <c r="D360" s="15"/>
       <c r="E360" s="15" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F360" s="22" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38296,10 +38279,10 @@
       <c r="C361" s="15"/>
       <c r="D361" s="15"/>
       <c r="E361" s="15" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F361" s="22" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38308,10 +38291,10 @@
       <c r="C362" s="15"/>
       <c r="D362" s="15"/>
       <c r="E362" s="15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F362" s="22" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38320,10 +38303,10 @@
       <c r="C363" s="15"/>
       <c r="D363" s="15"/>
       <c r="E363" s="15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F363" s="22" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38332,10 +38315,10 @@
       <c r="C364" s="15"/>
       <c r="D364" s="15"/>
       <c r="E364" s="15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F364" s="22" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38344,10 +38327,10 @@
       <c r="C365" s="15"/>
       <c r="D365" s="15"/>
       <c r="E365" s="15" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F365" s="22" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38356,10 +38339,10 @@
       <c r="C366" s="15"/>
       <c r="D366" s="15"/>
       <c r="E366" s="15" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F366" s="22" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38368,10 +38351,10 @@
       <c r="C367" s="15"/>
       <c r="D367" s="15"/>
       <c r="E367" s="15" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F367" s="22" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38380,10 +38363,10 @@
       <c r="C368" s="15"/>
       <c r="D368" s="15"/>
       <c r="E368" s="15" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F368" s="22" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38392,10 +38375,10 @@
       <c r="C369" s="15"/>
       <c r="D369" s="15"/>
       <c r="E369" s="15" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F369" s="22" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38404,10 +38387,10 @@
       <c r="C370" s="15"/>
       <c r="D370" s="15"/>
       <c r="E370" s="15" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F370" s="22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38416,10 +38399,10 @@
       <c r="C371" s="15"/>
       <c r="D371" s="15"/>
       <c r="E371" s="15" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F371" s="22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38428,10 +38411,10 @@
       <c r="C372" s="15"/>
       <c r="D372" s="15"/>
       <c r="E372" s="15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F372" s="22" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38440,10 +38423,10 @@
       <c r="C373" s="15"/>
       <c r="D373" s="15"/>
       <c r="E373" s="15" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F373" s="22" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38452,10 +38435,10 @@
       <c r="C374" s="15"/>
       <c r="D374" s="15"/>
       <c r="E374" s="15" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F374" s="22" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38464,10 +38447,10 @@
       <c r="C375" s="15"/>
       <c r="D375" s="15"/>
       <c r="E375" s="15" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F375" s="22" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38476,10 +38459,10 @@
       <c r="C376" s="15"/>
       <c r="D376" s="15"/>
       <c r="E376" s="15" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F376" s="22" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38488,10 +38471,10 @@
       <c r="C377" s="15"/>
       <c r="D377" s="15"/>
       <c r="E377" s="15" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F377" s="22" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38500,10 +38483,10 @@
       <c r="C378" s="15"/>
       <c r="D378" s="15"/>
       <c r="E378" s="15" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F378" s="22" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38512,10 +38495,10 @@
       <c r="C379" s="15"/>
       <c r="D379" s="15"/>
       <c r="E379" s="15" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F379" s="22" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38524,10 +38507,10 @@
       <c r="C380" s="15"/>
       <c r="D380" s="15"/>
       <c r="E380" s="15" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F380" s="22" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38536,10 +38519,10 @@
       <c r="C381" s="15"/>
       <c r="D381" s="15"/>
       <c r="E381" s="15" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F381" s="22" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38548,10 +38531,10 @@
       <c r="C382" s="15"/>
       <c r="D382" s="15"/>
       <c r="E382" s="15" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F382" s="22" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38560,10 +38543,10 @@
       <c r="C383" s="15"/>
       <c r="D383" s="15"/>
       <c r="E383" s="15" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F383" s="22" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38572,10 +38555,10 @@
       <c r="C384" s="15"/>
       <c r="D384" s="15"/>
       <c r="E384" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="F384" s="22" t="s">
         <v>469</v>
-      </c>
-      <c r="F384" s="22" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38584,10 +38567,10 @@
       <c r="C385" s="15"/>
       <c r="D385" s="15"/>
       <c r="E385" s="15" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F385" s="22" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
